--- a/Output/April/productivity_TL/productivity_TL_2022-04-26.xlsx
+++ b/Output/April/productivity_TL/productivity_TL_2022-04-26.xlsx
@@ -1305,10 +1305,10 @@
         <v>2</v>
       </c>
       <c r="S13">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="T13">
-        <v>0.04166666666666666</v>
+        <v>0.04347826086956522</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1488,10 +1488,10 @@
         <v>8</v>
       </c>
       <c r="G2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H2">
-        <v>0.06722689075630252</v>
+        <v>0.06837606837606838</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1688,7 +1688,7 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0.06722689075630252</v>
+        <v>0.06837606837606838</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1816,7 +1816,7 @@
         <v>42</v>
       </c>
       <c r="D2">
-        <v>0.06722689075630252</v>
+        <v>0.06837606837606838</v>
       </c>
       <c r="E2">
         <v>1</v>

--- a/Output/April/productivity_TL/productivity_TL_2022-04-26.xlsx
+++ b/Output/April/productivity_TL/productivity_TL_2022-04-26.xlsx
@@ -1482,7 +1482,7 @@
         <v>42</v>
       </c>
       <c r="E2">
-        <v>8.916666666666666</v>
+        <v>8.916666666666668</v>
       </c>
       <c r="F2">
         <v>8</v>

--- a/Output/April/productivity_TL/productivity_TL_2022-04-26.xlsx
+++ b/Output/April/productivity_TL/productivity_TL_2022-04-26.xlsx
@@ -1482,7 +1482,7 @@
         <v>42</v>
       </c>
       <c r="E2">
-        <v>8.916666666666668</v>
+        <v>8.916666666666666</v>
       </c>
       <c r="F2">
         <v>8</v>
